--- a/docs/intro/serverinfo.xlsx
+++ b/docs/intro/serverinfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="20945" windowHeight="8129"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>节点服务器信息采集表</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>云服务商</t>
+  </si>
+  <si>
+    <t>服务器租赁期</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20  年  月  日 至 20  年  月  日</t>
   </si>
   <si>
     <t>运维类型</t>
@@ -89,9 +95,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,30 +104,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,7 +149,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,9 +193,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,53 +219,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,43 +247,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,19 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,109 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +547,45 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +595,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,69 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -642,6 +639,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -650,10 +656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,133 +668,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,16 +1148,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="64.875" customWidth="1"/>
+    <col min="1" max="1" width="20.3728813559322" customWidth="1"/>
+    <col min="2" max="2" width="64.8728813559322" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:2">
@@ -1196,25 +1202,33 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" ht="79" customHeight="1" spans="1:2">
-      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" ht="79" customHeight="1" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1236,7 +1250,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1252,7 +1266,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
